--- a/planing/resoruces/database blueprints/noten.xlsx
+++ b/planing/resoruces/database blueprints/noten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Documents\NOTENRECHNER\final\planing\resoruces\database blueprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F983B96-80C0-465D-AB8C-522159D54E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F792543-C369-4281-B82D-967DB8DEAC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Lehrer_Kürzel</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>doclink</t>
+  </si>
+  <si>
+    <t>Noten_ID</t>
+  </si>
+  <si>
+    <t>Anzahl Klausur in Schuljahr</t>
   </si>
 </sst>
 </file>
@@ -378,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,9 +396,13 @@
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="14" max="14" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -428,6 +438,9 @@
       </c>
       <c r="M1" t="s">
         <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
